--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>603367.0907465453</v>
+        <v>555650.79546342</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12396860.33795848</v>
+        <v>12426458.88989895</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7855246.046027726</v>
+        <v>6381813.161497338</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8883562.200712783</v>
+        <v>9580421.07714317</v>
       </c>
     </row>
     <row r="11">
@@ -670,13 +670,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>232.2791855053265</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>187.5255871663202</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>6.396723986041692</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.1490678959589</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -788,25 +788,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>126.5317742768907</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>56.97945844363391</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>18.14576679396754</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845744</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.5255871663202</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>307.1442478716884</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663202</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5255871663202</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>11.36529914368126</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>153.8072380324135</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>187.5255871663202</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>139.2506473542489</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.1637893657753</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H6" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.77881175550655</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>37.1049045826091</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>153.5589724075876</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H7" t="n">
-        <v>153.4336708318195</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>125.7072197708666</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,22 +1107,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>72.16010323097214</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>263.7138800015062</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>232.2791855053264</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>15.39756578193399</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>263.7138800015062</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1220,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>34.08598204140084</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,10 +1277,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>24.84622561679687</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>204.7191642435938</v>
+        <v>51.02257256105592</v>
       </c>
       <c r="T10" t="n">
-        <v>223.2143458795659</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>263.7138800015062</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1372,22 +1372,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>118.2217055374124</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>301.0185525624054</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>134.0513867710689</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I12" t="n">
-        <v>20.22295923705013</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T12" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,25 +1530,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>34.70358683203005</v>
       </c>
       <c r="G13" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>64.57009008111716</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,22 +1609,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>305.0126164572716</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>180.5296813822787</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>135.3343964518635</v>
+        <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>92.83156789269626</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I15" t="n">
-        <v>20.22295923705013</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
-        <v>134.3646350838588</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T15" t="n">
-        <v>192.0665623188214</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U15" t="n">
-        <v>225.8092030868072</v>
+        <v>225.7871683969286</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>101.1037207411568</v>
       </c>
       <c r="I16" t="n">
-        <v>1.781160222249448</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>101.5575724195736</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>220.7486959972119</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>293.7625228451284</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>200.8052136229464</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1903,10 +1903,10 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2010,10 +2010,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>55.04428069320095</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2058,16 +2058,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>241.3477288675435</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>191.0922221582261</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>372.100758082424</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2134,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>203.1977700471498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>70.70607604584242</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>166.1465464887763</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>410.9217256534534</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>264.4070760305715</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>139.9012973798596</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2493,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>13.02719212039627</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>349.4526337405175</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,7 +2563,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2611,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>201.6086852141638</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2730,7 +2730,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,19 +2766,19 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>97.28002421814141</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>13.02719212039676</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>113.9096336732655</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>160.0317554412376</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2961,13 +2961,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>130.3899231758517</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>217.0914199928484</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>179.049755630705</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3046,7 +3046,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>165.1217134651686</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -3088,13 +3088,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3204,10 +3204,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>149.2419515106229</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>164.2540732785633</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,10 +3268,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>121.0389903687753</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>212.7626450469259</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>24.97436107625042</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3441,10 +3441,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>105.0023863360926</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>121.0107198513687</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>50.43805308696707</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>239.9115438999872</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>229.7965692041371</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>168.1158122680963</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>57.5630551239094</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>146.9083821604494</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,16 +3957,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>163.0178325771093</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>19.84006383513685</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>80.7160676450474</v>
       </c>
       <c r="U46" t="n">
-        <v>147.83689146714</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.00204697330562</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>15.00204697330562</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>15.00204697330562</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>15.00204697330562</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F2" t="n">
-        <v>15.00204697330562</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="G2" t="n">
-        <v>15.00204697330562</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330562</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330562</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678506</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058973</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>347.121819064476</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123834</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985592</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020275</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652808</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652808</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823989</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823989</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659138</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>210.8831693494288</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>21.46338433294369</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X2" t="n">
-        <v>15.00204697330562</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y2" t="n">
-        <v>15.00204697330562</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.27357399906981</v>
+        <v>326.869123378691</v>
       </c>
       <c r="C3" t="n">
-        <v>64.27357399906981</v>
+        <v>326.869123378691</v>
       </c>
       <c r="D3" t="n">
-        <v>64.27357399906981</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>64.27357399906981</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>64.27357399906981</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>64.27357399906981</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>64.27357399906981</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330562</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330562</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140247</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546606</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017073</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652808</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652808</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198772</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198772</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198772</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="V3" t="n">
-        <v>598.8192732198772</v>
+        <v>622.8943334057194</v>
       </c>
       <c r="W3" t="n">
-        <v>598.8192732198772</v>
+        <v>495.0844603987591</v>
       </c>
       <c r="X3" t="n">
-        <v>409.3994882033921</v>
+        <v>495.0844603987591</v>
       </c>
       <c r="Y3" t="n">
-        <v>219.9797031869071</v>
+        <v>495.0844603987591</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>241.4932384301357</v>
+        <v>39.42616776776447</v>
       </c>
       <c r="C4" t="n">
-        <v>72.55705550222876</v>
+        <v>39.42616776776447</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330562</v>
+        <v>39.42616776776447</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330562</v>
+        <v>39.42616776776447</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330562</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330562</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330562</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330562</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330562</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330562</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884408</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830978</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242527</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>634.3723839608029</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652808</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846285</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>612.5614882768605</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>612.5614882768605</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>612.5614882768605</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>612.5614882768605</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="V4" t="n">
-        <v>612.5614882768605</v>
+        <v>533.7933752329598</v>
       </c>
       <c r="W4" t="n">
-        <v>612.5614882768605</v>
+        <v>267.4157186657818</v>
       </c>
       <c r="X4" t="n">
-        <v>612.5614882768605</v>
+        <v>39.42616776776447</v>
       </c>
       <c r="Y4" t="n">
-        <v>423.1417032603754</v>
+        <v>39.42616776776447</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>393.8416170062758</v>
+        <v>1259.58599960285</v>
       </c>
       <c r="C5" t="n">
-        <v>393.8416170062758</v>
+        <v>1259.58599960285</v>
       </c>
       <c r="D5" t="n">
-        <v>393.8416170062758</v>
+        <v>1259.58599960285</v>
       </c>
       <c r="E5" t="n">
-        <v>393.8416170062758</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F5" t="n">
-        <v>204.4218319897907</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330562</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330562</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330562</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678489</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079188</v>
+        <v>669.5878927711874</v>
       </c>
       <c r="M5" t="n">
-        <v>347.121819064476</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123834</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O5" t="n">
-        <v>649.4845259985592</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P5" t="n">
-        <v>734.4611726020275</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.1023486652808</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R5" t="n">
-        <v>738.6222485201482</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S5" t="n">
-        <v>738.6222485201482</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T5" t="n">
-        <v>738.6222485201482</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U5" t="n">
-        <v>738.6222485201482</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V5" t="n">
-        <v>583.2614020227609</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="W5" t="n">
-        <v>583.2614020227609</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="X5" t="n">
-        <v>583.2614020227609</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="Y5" t="n">
-        <v>393.8416170062758</v>
+        <v>1646.185839666972</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>750.1023486652808</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="C6" t="n">
-        <v>750.1023486652808</v>
+        <v>634.9516129627989</v>
       </c>
       <c r="D6" t="n">
-        <v>609.4451291155344</v>
+        <v>486.0172033015477</v>
       </c>
       <c r="E6" t="n">
-        <v>450.2076741100789</v>
+        <v>326.7797482960922</v>
       </c>
       <c r="F6" t="n">
-        <v>303.6731161369638</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G6" t="n">
-        <v>166.133934959413</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H6" t="n">
-        <v>64.27357399906981</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330562</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330562</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024196</v>
+        <v>440.9010965631276</v>
       </c>
       <c r="L6" t="n">
-        <v>183.554828077265</v>
+        <v>698.4522321231152</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140247</v>
+        <v>1018.359127591624</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546606</v>
+        <v>1361.141651586256</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476354</v>
+        <v>1652.500897840822</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017073</v>
+        <v>1867.009313401722</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.1023486652808</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R6" t="n">
-        <v>750.1023486652808</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S6" t="n">
-        <v>750.1023486652808</v>
+        <v>2130.980125306058</v>
       </c>
       <c r="T6" t="n">
-        <v>750.1023486652808</v>
+        <v>1936.269803780034</v>
       </c>
       <c r="U6" t="n">
-        <v>750.1023486652808</v>
+        <v>1708.168213913298</v>
       </c>
       <c r="V6" t="n">
-        <v>750.1023486652808</v>
+        <v>1473.016105681555</v>
       </c>
       <c r="W6" t="n">
-        <v>750.1023486652808</v>
+        <v>1218.778748953354</v>
       </c>
       <c r="X6" t="n">
-        <v>750.1023486652808</v>
+        <v>1010.927248747821</v>
       </c>
       <c r="Y6" t="n">
-        <v>750.1023486652808</v>
+        <v>803.166949982867</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>750.1023486652808</v>
+        <v>528.3513024533747</v>
       </c>
       <c r="C7" t="n">
-        <v>750.1023486652808</v>
+        <v>359.4151195254678</v>
       </c>
       <c r="D7" t="n">
-        <v>599.9857092529451</v>
+        <v>359.4151195254678</v>
       </c>
       <c r="E7" t="n">
-        <v>452.072615670552</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="F7" t="n">
-        <v>452.072615670552</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G7" t="n">
-        <v>296.9625425315745</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H7" t="n">
-        <v>141.9790366408477</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330562</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330562</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330562</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L7" t="n">
-        <v>187.8896250884408</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M7" t="n">
-        <v>373.5399563830978</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N7" t="n">
-        <v>559.1902876777548</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O7" t="n">
-        <v>634.3723839608029</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P7" t="n">
-        <v>750.1023486652808</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q7" t="n">
-        <v>750.1023486652808</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R7" t="n">
-        <v>750.1023486652808</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S7" t="n">
-        <v>750.1023486652808</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T7" t="n">
-        <v>750.1023486652808</v>
+        <v>1413.466385531049</v>
       </c>
       <c r="U7" t="n">
-        <v>750.1023486652808</v>
+        <v>1413.466385531049</v>
       </c>
       <c r="V7" t="n">
-        <v>750.1023486652808</v>
+        <v>1158.781897325162</v>
       </c>
       <c r="W7" t="n">
-        <v>750.1023486652808</v>
+        <v>1158.781897325162</v>
       </c>
       <c r="X7" t="n">
-        <v>750.1023486652808</v>
+        <v>930.7923464271446</v>
       </c>
       <c r="Y7" t="n">
-        <v>750.1023486652808</v>
+        <v>709.9997672836145</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>522.1002068716687</v>
+        <v>934.6665353554984</v>
       </c>
       <c r="C8" t="n">
-        <v>255.7225503044907</v>
+        <v>934.6665353554984</v>
       </c>
       <c r="D8" t="n">
-        <v>21.0971104001205</v>
+        <v>934.6665353554984</v>
       </c>
       <c r="E8" t="n">
-        <v>21.0971104001205</v>
+        <v>548.8782827572541</v>
       </c>
       <c r="F8" t="n">
-        <v>21.0971104001205</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>21.0971104001205</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>21.0971104001205</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>21.0971104001205</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>49.28269087917556</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>142.264087905254</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>294.5174947515906</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>495.5981834030605</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
-        <v>704.5463761991317</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>888.5149683358416</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>1054.855520006025</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>1054.855520006025</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>1054.855520006025</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>1054.855520006025</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>1054.855520006025</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1054.855520006025</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X8" t="n">
-        <v>1054.855520006025</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y8" t="n">
-        <v>788.4778634388467</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>378.9148342328027</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C9" t="n">
-        <v>204.4618049516756</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>55.52739529042438</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E9" t="n">
-        <v>55.52739529042438</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F9" t="n">
-        <v>21.0971104001205</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>21.0971104001205</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>21.0971104001205</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>21.0971104001205</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>21.0971104001205</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>95.78113116957469</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>242.5255548298714</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>433.1262439263952</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>643.1802110290002</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>813.1187583557301</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P9" t="n">
-        <v>930.1763583891336</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q9" t="n">
-        <v>1054.855520006025</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>1036.519636212815</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>1036.519636212815</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>1036.519636212815</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>1036.519636212815</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>801.3675279810723</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>547.1301712528707</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>547.1301712528707</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>547.1301712528707</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.1245950146483</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C10" t="n">
-        <v>331.1245950146483</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D10" t="n">
-        <v>331.1245950146483</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>183.2115014322552</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>36.32155393434482</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>36.32155393434482</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>36.32155393434482</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>36.32155393434482</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>21.0971104001205</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
-        <v>126.4133765287947</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>316.7083726551009</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>527.7368878375337</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
-        <v>739.1822330227048</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>918.4699372075545</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1048.360858816803</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1054.855520006025</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1029.758322413301</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>822.9712878238121</v>
+        <v>1482.324761508205</v>
       </c>
       <c r="T10" t="n">
-        <v>597.5022515818264</v>
+        <v>1259.34628070294</v>
       </c>
       <c r="U10" t="n">
-        <v>331.1245950146483</v>
+        <v>970.2279432067783</v>
       </c>
       <c r="V10" t="n">
-        <v>331.1245950146483</v>
+        <v>715.5434550008914</v>
       </c>
       <c r="W10" t="n">
-        <v>331.1245950146483</v>
+        <v>426.1262849639308</v>
       </c>
       <c r="X10" t="n">
-        <v>331.1245950146483</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="Y10" t="n">
-        <v>331.1245950146483</v>
+        <v>198.1367340659135</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>474.7217947496374</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C11" t="n">
-        <v>355.3059305704328</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D11" t="n">
-        <v>355.3059305704328</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E11" t="n">
-        <v>355.3059305704328</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>355.3059305704328</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>355.3059305704328</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>187.5281822362819</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>442.5171852816082</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
-        <v>795.755353087291</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1220.470313923561</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>2360.886721764998</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q11" t="n">
-        <v>2542.250581723851</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>2562.339328400156</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>2562.339328400156</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>2562.339328400156</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U11" t="n">
-        <v>2308.758267664336</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V11" t="n">
-        <v>1977.695380320765</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W11" t="n">
-        <v>1624.926725050651</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X11" t="n">
-        <v>1251.460966789571</v>
+        <v>3079.909711953368</v>
       </c>
       <c r="Y11" t="n">
-        <v>861.3216348137591</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>931.3041410966389</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C12" t="n">
-        <v>756.8511118155119</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D12" t="n">
-        <v>607.9167021542605</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E12" t="n">
-        <v>448.679247148805</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F12" t="n">
-        <v>302.14468917569</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G12" t="n">
-        <v>165.443278618252</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>71.67401812057901</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I12" t="n">
-        <v>51.24678656800312</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J12" t="n">
-        <v>238.4273302370161</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>684.9695361605188</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>979.6730931919906</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
-        <v>1342.935112151211</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1730.220240748156</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O12" t="n">
-        <v>2062.290675924318</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P12" t="n">
-        <v>2309.473409756615</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2562.339328400156</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R12" t="n">
-        <v>2562.339328400156</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S12" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U12" t="n">
-        <v>2004.520742047138</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W12" t="n">
-        <v>1515.131277087194</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X12" t="n">
-        <v>1307.279776881661</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>940.7932119894607</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="C13" t="n">
-        <v>771.8570290615538</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="D13" t="n">
-        <v>621.7403896492181</v>
+        <v>249.4793381277382</v>
       </c>
       <c r="E13" t="n">
-        <v>473.8272960668249</v>
+        <v>101.5662445453451</v>
       </c>
       <c r="F13" t="n">
-        <v>473.8272960668249</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>305.8408313751036</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>157.1019332386098</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>51.24678656800312</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>76.71595955312199</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K13" t="n">
-        <v>248.4064713020475</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L13" t="n">
-        <v>523.6376499693234</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>824.2194607096587</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N13" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O13" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P13" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.223806861248</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.223806861248</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T13" t="n">
-        <v>1571.223806861248</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U13" t="n">
-        <v>1571.223806861248</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V13" t="n">
-        <v>1571.223806861248</v>
+        <v>1169.327103036486</v>
       </c>
       <c r="W13" t="n">
-        <v>1571.223806861248</v>
+        <v>879.9099329995254</v>
       </c>
       <c r="X13" t="n">
-        <v>1343.23425596323</v>
+        <v>651.920382101508</v>
       </c>
       <c r="Y13" t="n">
-        <v>1122.4416768197</v>
+        <v>431.1278029579779</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>728.3028554854568</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C14" t="n">
-        <v>359.3403385450451</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D14" t="n">
-        <v>51.2467865680031</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E14" t="n">
-        <v>51.2467865680031</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F14" t="n">
-        <v>51.2467865680031</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G14" t="n">
-        <v>51.2467865680031</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>187.5281822362817</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>442.5171852816081</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>795.7553530872914</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1220.470313923562</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>1656.671415230817</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2055.22848474084</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>2360.886721764997</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>2542.25058172385</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>2562.339328400155</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>2562.339328400155</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2562.339328400155</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V14" t="n">
-        <v>2231.276441056584</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W14" t="n">
-        <v>1878.50778578647</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="X14" t="n">
-        <v>1505.04202752539</v>
+        <v>2352.681496406205</v>
       </c>
       <c r="Y14" t="n">
-        <v>1114.902695549579</v>
+        <v>1962.542164430393</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>931.3041410966385</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C15" t="n">
-        <v>756.8511118155116</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D15" t="n">
-        <v>607.9167021542603</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E15" t="n">
-        <v>448.6792471488048</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F15" t="n">
-        <v>302.1446891756898</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G15" t="n">
-        <v>165.443278618252</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H15" t="n">
-        <v>71.67401812057899</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I15" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>238.4273302370161</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>614.5430248380226</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L15" t="n">
-        <v>909.2465818694943</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M15" t="n">
-        <v>1272.508600828714</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N15" t="n">
-        <v>1659.79372942566</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>1991.864164601821</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
-        <v>2239.046898434118</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q15" t="n">
-        <v>2562.339328400155</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R15" t="n">
-        <v>2562.339328400155</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S15" t="n">
-        <v>2426.617474780096</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T15" t="n">
-        <v>2232.610846175226</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U15" t="n">
-        <v>2004.520742047137</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V15" t="n">
-        <v>1769.368633815395</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W15" t="n">
-        <v>1515.131277087193</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X15" t="n">
-        <v>1307.27977688166</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1099.519478116707</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>53.04593830764901</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="C16" t="n">
-        <v>53.04593830764901</v>
+        <v>613.5567673704356</v>
       </c>
       <c r="D16" t="n">
-        <v>53.04593830764901</v>
+        <v>463.4401279580999</v>
       </c>
       <c r="E16" t="n">
-        <v>53.04593830764901</v>
+        <v>315.5270343757068</v>
       </c>
       <c r="F16" t="n">
-        <v>53.04593830764901</v>
+        <v>168.6370868777964</v>
       </c>
       <c r="G16" t="n">
-        <v>53.04593830764901</v>
+        <v>168.6370868777964</v>
       </c>
       <c r="H16" t="n">
-        <v>53.04593830764901</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>51.2467865680031</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>76.71595955312198</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K16" t="n">
-        <v>248.4064713020475</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L16" t="n">
-        <v>523.6376499693233</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>824.2194607096585</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N16" t="n">
-        <v>1123.088724245823</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O16" t="n">
-        <v>1383.126566999035</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P16" t="n">
-        <v>1582.113182171024</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1636.446120074497</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1533.862713590079</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S16" t="n">
-        <v>1337.233965749941</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T16" t="n">
-        <v>1114.255484944676</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U16" t="n">
-        <v>825.1371474485138</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V16" t="n">
-        <v>570.452659242627</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W16" t="n">
-        <v>281.0354892056664</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X16" t="n">
-        <v>53.04593830764901</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="Y16" t="n">
-        <v>53.04593830764901</v>
+        <v>782.4929502983425</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1822.632236038044</v>
+        <v>2230.937844028707</v>
       </c>
       <c r="C17" t="n">
-        <v>1453.669719097632</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D17" t="n">
-        <v>1095.404020490882</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E17" t="n">
-        <v>1095.404020490882</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F17" t="n">
-        <v>684.4181157012742</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G17" t="n">
-        <v>269.3456655462707</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W17" t="n">
-        <v>2972.837166339057</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X17" t="n">
-        <v>2599.371408077977</v>
+        <v>2621.077176004519</v>
       </c>
       <c r="Y17" t="n">
-        <v>2209.232076102166</v>
+        <v>2230.937844028707</v>
       </c>
     </row>
     <row r="18">
@@ -5588,19 +5588,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.1652223009119</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C19" t="n">
-        <v>272.229039373005</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D19" t="n">
-        <v>122.1123999606693</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E19" t="n">
-        <v>122.1123999606693</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J19" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415547</v>
+        <v>1615.697475415546</v>
       </c>
       <c r="U19" t="n">
-        <v>1615.697475415547</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V19" t="n">
-        <v>1361.01298720966</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="W19" t="n">
-        <v>1071.595817172699</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="X19" t="n">
-        <v>843.6062662746817</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y19" t="n">
-        <v>622.8136871311516</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1878.169188758594</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="C20" t="n">
-        <v>1509.206671818182</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D20" t="n">
-        <v>1150.940973211432</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E20" t="n">
-        <v>1150.940973211432</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F20" t="n">
-        <v>739.9550684218243</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218342</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.5429342656</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W20" t="n">
-        <v>2641.774278995485</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X20" t="n">
-        <v>2268.308520734406</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y20" t="n">
-        <v>1878.169188758594</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="21">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2489.924953962485</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C22" t="n">
-        <v>2320.988771034578</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D22" t="n">
-        <v>2170.872131622242</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E22" t="n">
-        <v>2022.959038039849</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F22" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G22" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>1562.149067134516</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>1509.946022399797</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L22" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N22" t="n">
-        <v>2716.058426102583</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O22" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P22" t="n">
-        <v>3247.995525456656</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S22" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T22" t="n">
-        <v>3325.605821609171</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U22" t="n">
-        <v>3325.605821609171</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="V22" t="n">
-        <v>3325.605821609171</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W22" t="n">
-        <v>3120.355548834272</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X22" t="n">
-        <v>2892.365997936255</v>
+        <v>933.4367235171535</v>
       </c>
       <c r="Y22" t="n">
-        <v>2671.573418792725</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1250.80968089488</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C23" t="n">
-        <v>881.8471639544687</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D23" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E23" t="n">
-        <v>523.5814653477182</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I23" t="n">
         <v>66.51211643218342</v>
@@ -6016,25 +6016,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U23" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2630.721789066531</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2277.953133796417</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>1904.487375535337</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y23" t="n">
-        <v>1637.409520959002</v>
+        <v>1418.660964416652</v>
       </c>
     </row>
     <row r="24">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1007.446783179745</v>
+        <v>697.9541770656748</v>
       </c>
       <c r="C25" t="n">
-        <v>838.5106002518381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D25" t="n">
-        <v>688.3939608395024</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E25" t="n">
-        <v>540.4808672571093</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F25" t="n">
-        <v>393.5909197591989</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>225.8880831339178</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H25" t="n">
-        <v>79.67089635177561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I25" t="n">
         <v>66.51211643218342</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S25" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U25" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V25" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="W25" t="n">
-        <v>1637.877378051532</v>
+        <v>1067.25816976153</v>
       </c>
       <c r="X25" t="n">
-        <v>1409.887827153515</v>
+        <v>839.2686188635128</v>
       </c>
       <c r="Y25" t="n">
-        <v>1189.095248009985</v>
+        <v>839.2686188635128</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2005.586939522201</v>
+        <v>1661.795585684488</v>
       </c>
       <c r="C26" t="n">
-        <v>1636.624422581789</v>
+        <v>1292.833068744076</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P26" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V26" t="n">
-        <v>3121.960685029207</v>
+        <v>2741.012457539437</v>
       </c>
       <c r="W26" t="n">
-        <v>2769.192029759092</v>
+        <v>2388.243802269323</v>
       </c>
       <c r="X26" t="n">
-        <v>2395.726271498012</v>
+        <v>2014.778044008243</v>
       </c>
       <c r="Y26" t="n">
-        <v>2005.586939522201</v>
+        <v>2014.778044008243</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2392.59927678083</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C28" t="n">
-        <v>2223.663093852923</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D28" t="n">
-        <v>2073.546454440587</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E28" t="n">
-        <v>1925.633360858194</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F28" t="n">
-        <v>1778.743413360284</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G28" t="n">
-        <v>1611.040576735003</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I28" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J28" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K28" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L28" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M28" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N28" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O28" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P28" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>3325.60582160917</v>
+        <v>1829.031897363097</v>
       </c>
       <c r="U28" t="n">
-        <v>3325.60582160917</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="V28" t="n">
-        <v>3312.447041689577</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W28" t="n">
-        <v>3023.029871652617</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X28" t="n">
-        <v>2795.0403207546</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y28" t="n">
-        <v>2574.24774161107</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="29">
@@ -6439,28 +6439,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>1636.624422581789</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>1278.358723975039</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J29" t="n">
         <v>255.3912473912088</v>
@@ -6475,40 +6475,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R29" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3100.254917102663</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>3100.254917102663</v>
+        <v>3163.957583789738</v>
       </c>
       <c r="V29" t="n">
-        <v>2769.192029759092</v>
+        <v>3163.957583789738</v>
       </c>
       <c r="W29" t="n">
-        <v>2769.192029759092</v>
+        <v>2811.188928519624</v>
       </c>
       <c r="X29" t="n">
-        <v>2395.726271498012</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y29" t="n">
-        <v>2005.586939522201</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I30" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6597,31 +6597,31 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>533.4780323548191</v>
+        <v>979.7778095849316</v>
       </c>
       <c r="C31" t="n">
-        <v>364.5418494269122</v>
+        <v>810.8416266570247</v>
       </c>
       <c r="D31" t="n">
-        <v>214.4252100145765</v>
+        <v>660.7249872446889</v>
       </c>
       <c r="E31" t="n">
-        <v>66.51211643218339</v>
+        <v>512.8118936622958</v>
       </c>
       <c r="F31" t="n">
-        <v>66.51211643218339</v>
+        <v>365.9219461643854</v>
       </c>
       <c r="G31" t="n">
-        <v>66.51211643218339</v>
+        <v>198.2191095391044</v>
       </c>
       <c r="H31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I31" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J31" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K31" t="n">
         <v>315.6219318279954</v>
@@ -6651,22 +6651,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1708.010285469454</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V31" t="n">
-        <v>1453.325797263567</v>
+        <v>1450.843444452132</v>
       </c>
       <c r="W31" t="n">
-        <v>1163.908627226606</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="X31" t="n">
-        <v>935.919076328589</v>
+        <v>1161.426274415171</v>
       </c>
       <c r="Y31" t="n">
-        <v>715.1264971850588</v>
+        <v>1161.426274415171</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1845.410930903097</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="C32" t="n">
-        <v>1845.410930903097</v>
+        <v>1501.213961756484</v>
       </c>
       <c r="D32" t="n">
-        <v>1487.145232296346</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E32" t="n">
-        <v>1101.356979698102</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F32" t="n">
-        <v>690.3710749084946</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G32" t="n">
-        <v>275.2986247534911</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H32" t="n">
         <v>108.5090151927147</v>
@@ -6700,19 +6700,19 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L32" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M32" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N32" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O32" t="n">
         <v>2623.528026939508</v>
@@ -6736,16 +6736,16 @@
         <v>2961.784676410103</v>
       </c>
       <c r="V32" t="n">
-        <v>2961.784676410103</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W32" t="n">
-        <v>2609.016021139988</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X32" t="n">
-        <v>2235.550262878909</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="Y32" t="n">
-        <v>1845.410930903097</v>
+        <v>1887.813801820606</v>
       </c>
     </row>
     <row r="33">
@@ -6755,37 +6755,37 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K33" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
@@ -6812,7 +6812,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
         <v>1779.608347199865</v>
@@ -6821,10 +6821,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2489.924953962486</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C34" t="n">
-        <v>2320.988771034579</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D34" t="n">
-        <v>2170.872131622243</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E34" t="n">
-        <v>2022.95903803985</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F34" t="n">
-        <v>1876.06909054194</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G34" t="n">
-        <v>1708.366253916659</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134517</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399798</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396719</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>3044.089480193526</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T34" t="n">
-        <v>2822.322864763052</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U34" t="n">
-        <v>2671.573418792726</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V34" t="n">
-        <v>2671.573418792726</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W34" t="n">
-        <v>2671.573418792726</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="X34" t="n">
-        <v>2671.573418792726</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y34" t="n">
-        <v>2671.573418792726</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1734.047335491681</v>
+        <v>1811.579746109088</v>
       </c>
       <c r="C35" t="n">
-        <v>1734.047335491681</v>
+        <v>1442.617229168676</v>
       </c>
       <c r="D35" t="n">
-        <v>1375.781636884931</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E35" t="n">
-        <v>989.9933842866863</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F35" t="n">
-        <v>579.0074794970787</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G35" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H35" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6940,7 +6940,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
         <v>1040.244834329464</v>
@@ -6970,19 +6970,19 @@
         <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>2884.252265792694</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W35" t="n">
-        <v>2884.252265792694</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X35" t="n">
-        <v>2510.786507531614</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y35" t="n">
-        <v>2120.647175555803</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="36">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2489.924953962484</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>2320.988771034577</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>2170.872131622242</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>2022.959038039849</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>1876.069090541939</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>1708.366253916658</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O37" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P37" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U37" t="n">
-        <v>3044.089480193524</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V37" t="n">
-        <v>3044.089480193524</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W37" t="n">
-        <v>3044.089480193524</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X37" t="n">
-        <v>2892.365997936254</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="Y37" t="n">
-        <v>2671.573418792724</v>
+        <v>873.2974438277585</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1285.591601078693</v>
+        <v>1754.744438482647</v>
       </c>
       <c r="C38" t="n">
-        <v>916.6290841382818</v>
+        <v>1385.781921542235</v>
       </c>
       <c r="D38" t="n">
-        <v>558.3633855315313</v>
+        <v>1027.516222935484</v>
       </c>
       <c r="E38" t="n">
-        <v>172.5751329332871</v>
+        <v>641.7279703372401</v>
       </c>
       <c r="F38" t="n">
-        <v>66.51211643218339</v>
+        <v>230.7420655476325</v>
       </c>
       <c r="G38" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7186,40 +7186,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U38" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V38" t="n">
-        <v>2788.565186649821</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W38" t="n">
-        <v>2435.796531379707</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X38" t="n">
-        <v>2062.330773118627</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="Y38" t="n">
-        <v>1672.191441142815</v>
+        <v>2141.344278546768</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P39" t="n">
         <v>2407.411984886741</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1633.759572880767</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.82338995286</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.82338995286</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.82338995286</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.82338995286</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.82338995286</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.82338995286</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.82338995286</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348672</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797168</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396717</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022995</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366697</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T40" t="n">
-        <v>2822.32286476305</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>2533.219997888693</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V40" t="n">
-        <v>2278.535509682807</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W40" t="n">
-        <v>2036.200616854537</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X40" t="n">
-        <v>2036.200616854537</v>
+        <v>899.0183448486844</v>
       </c>
       <c r="Y40" t="n">
-        <v>1815.408037711007</v>
+        <v>899.0183448486844</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038043</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.669719097631</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.404020490881</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926365</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>298.629863103029</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7435,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102165</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="42">
@@ -7487,7 +7487,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
         <v>160.1893859228007</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>362.8175152271517</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C43" t="n">
-        <v>362.8175152271517</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D43" t="n">
-        <v>362.8175152271517</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E43" t="n">
-        <v>214.9044216447586</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F43" t="n">
-        <v>214.9044216447586</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T43" t="n">
-        <v>1424.011591242373</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="W43" t="n">
-        <v>590.8070661251691</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="X43" t="n">
-        <v>362.8175152271517</v>
+        <v>1127.007895746702</v>
       </c>
       <c r="Y43" t="n">
-        <v>362.8175152271517</v>
+        <v>906.2153166031716</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1661.795585684488</v>
+        <v>1853.982617026597</v>
       </c>
       <c r="C44" t="n">
-        <v>1292.833068744076</v>
+        <v>1485.020100086185</v>
       </c>
       <c r="D44" t="n">
-        <v>934.5673701373257</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
         <v>934.5673701373257</v>
@@ -7645,55 +7645,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S44" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U44" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V44" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.97538618064</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X44" t="n">
-        <v>2051.9349176603</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y44" t="n">
-        <v>1661.795585684488</v>
+        <v>2240.582457090719</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>381.6654861422326</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="C46" t="n">
-        <v>212.7293032143257</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="D46" t="n">
-        <v>212.7293032143257</v>
+        <v>382.1280466398575</v>
       </c>
       <c r="E46" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F46" t="n">
-        <v>212.7293032143257</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G46" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7836,22 +7836,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1705.527932658019</v>
+        <v>1845.763166628849</v>
       </c>
       <c r="U46" t="n">
-        <v>1556.197739256867</v>
+        <v>1556.660299754492</v>
       </c>
       <c r="V46" t="n">
-        <v>1301.51325105098</v>
+        <v>1301.975811548605</v>
       </c>
       <c r="W46" t="n">
-        <v>1012.09608101402</v>
+        <v>1012.558641511645</v>
       </c>
       <c r="X46" t="n">
-        <v>784.1065301160024</v>
+        <v>784.5690906136274</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.3139509724723</v>
+        <v>563.7765114700973</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265832</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402845</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457086</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484715</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265832</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>70.12741386431412</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,19 +8376,19 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402845</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M7" t="n">
-        <v>171.4142040457086</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N7" t="n">
-        <v>163.8604018711119</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O7" t="n">
-        <v>74.60115408961774</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>60.51967546761151</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>2.051220519418237</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>97.32166909127245</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>138.9393975111062</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>20.9377812015499</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9002,13 +9002,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>10.12574714858493</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9026,10 +9026,10 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.9377812015499</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -22558,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>81.9144471239415</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368126</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>63.64367339871012</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>140.2266713038147</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>161.7153815510928</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X2" t="n">
-        <v>363.3343766924273</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.38411575390845</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22634,19 +22634,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,28 +22673,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714232</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920012</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>125.1632088840289</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715727</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>18.15710861098415</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,31 +22704,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>91.63601457457844</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>127.2752812289637</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318195</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708666</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553079</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577458</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>74.7861222005734</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753912</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>225.5722460637378</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>213.4438810562068</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1692605650303</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V5" t="n">
-        <v>173.9450204377214</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>198.7123514897334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22862,13 +22862,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>8.194418210389813</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>26.91122581714232</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>100.4701093106901</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920012</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22941,13 +22941,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>13.44296279512653</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J7" t="n">
-        <v>23.43375830553079</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22986,31 +22986,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.343082173845744</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>132.8223696106904</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S7" t="n">
-        <v>206.7802557954962</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T7" t="n">
-        <v>223.7196734901001</v>
+        <v>149.2077155033305</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2650814934503</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>119.0199616619744</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>101.5590117695014</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>122.4038561153565</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>391.4784799597774</v>
       </c>
       <c r="G8" t="n">
-        <v>412.83417464571</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>314.193632629268</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.2897156032232</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1481678782825</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.5240586545474</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23108,19 +23108,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>110.983230351983</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>43.92180400150558</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,13 +23150,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23165,10 +23165,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23187,19 +23187,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.8836670385466</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>152.3821593358568</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>122.1505735248085</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,25 +23226,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>102.658377266867</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>143.6398878006815</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>22.54475050117128</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>247.0511862335951</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>65.70991267247049</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>206.6581849802338</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>235.6797139074001</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>110.7174611909012</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>36.98748233845647</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2271541212006</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,25 +23497,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>49.67042516341138</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.70991267247049</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>123.4522153987944</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>168.7112873351343</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.3066000448042</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>147.2515091551288</v>
+        <v>43.65129417316393</v>
       </c>
       <c r="I16" t="n">
-        <v>103.0154349816511</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>71.51036892587911</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>93.80255076437408</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,16 +23785,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23898,10 +23898,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>90.37676732973028</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
@@ -23910,7 +23910,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>10.78991445628446</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>191.6416195052545</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>38.82096757102943</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -24022,10 +24022,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>83.32522828944121</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>147.8785773062524</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>216.5872951747043</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,7 +24217,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>121.8308626254821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>39.93068280207774</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>83.32522828944182</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>33.28120792296312</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,7 +24451,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24463,7 +24463,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>126.1435732559711</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24654,19 +24654,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>122.2689250580278</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>239.1104512034312</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>90.00833646635462</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>90.96341651766443</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>14.36509173846903</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24891,10 +24891,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>69.12041821276446</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>175.6332859899779</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>129.4860509221518</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24976,13 +24976,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>136.96988669499</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>61.45558211047381</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,10 +25156,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>233.6440512519076</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>198.1590806065275</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,10 +25210,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>154.8576191056869</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>75.50340795433985</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>301.8736594056188</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>289.9110058020848</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>129.3939270949702</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>46.61145443660385</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>181.1251564493163</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
@@ -25690,7 +25690,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>181.1251564493167</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>122.2689250580279</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>19.11742609857879</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>191.6652090435736</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>349.8910368433322</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26076,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>138.8328816311218</v>
       </c>
       <c r="U46" t="n">
-        <v>138.3749467384729</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>469204.3889465107</v>
+        <v>531745.8774266867</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>469204.3889465107</v>
+        <v>726949.4244662802</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>531745.8774266867</v>
+        <v>795881.4350570394</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>795881.4350570394</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>795881.4350570393</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>877471.8739210083</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210083</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>877471.873921008</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210083</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.873921008</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>877471.8739210081</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210083</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>171419.5356187816</v>
+        <v>193768.2521372568</v>
       </c>
       <c r="C2" t="n">
-        <v>171419.5356187816</v>
+        <v>265569.8802231801</v>
       </c>
       <c r="D2" t="n">
-        <v>193768.2521372568</v>
+        <v>290673.0489695931</v>
       </c>
       <c r="E2" t="n">
-        <v>290673.0489695932</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="F2" t="n">
-        <v>290673.0489695932</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="G2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223743</v>
       </c>
       <c r="H2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="I2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="J2" t="n">
         <v>323947.2440223746</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>323947.2440223744</v>
-      </c>
-      <c r="K2" t="n">
-        <v>323947.2440223745</v>
       </c>
       <c r="L2" t="n">
         <v>323947.2440223746</v>
       </c>
       <c r="M2" t="n">
+        <v>323947.2440223744</v>
+      </c>
+      <c r="N2" t="n">
+        <v>323947.2440223747</v>
+      </c>
+      <c r="O2" t="n">
         <v>323947.2440223743</v>
-      </c>
-      <c r="N2" t="n">
-        <v>323947.2440223743</v>
-      </c>
-      <c r="O2" t="n">
-        <v>323947.2440223745</v>
       </c>
       <c r="P2" t="n">
         <v>323947.2440223746</v>
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208458</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>308174.1417414033</v>
       </c>
       <c r="D3" t="n">
-        <v>79834.34398878331</v>
+        <v>99404.1828459611</v>
       </c>
       <c r="E3" t="n">
-        <v>369622.2714301429</v>
+        <v>182072.9798171905</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>173363.8810341909</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854465</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>71651.52831447145</v>
       </c>
       <c r="L3" t="n">
-        <v>19282.57122195017</v>
+        <v>24921.83922824965</v>
       </c>
       <c r="M3" t="n">
-        <v>93917.74874676268</v>
+        <v>47552.26579341477</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45920.21121431082</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9240.88011945353</v>
+        <v>11859.77526465972</v>
       </c>
       <c r="C4" t="n">
-        <v>9240.88011945353</v>
+        <v>14549.24850679122</v>
       </c>
       <c r="D4" t="n">
-        <v>11859.77526465972</v>
+        <v>16175.59256035158</v>
       </c>
       <c r="E4" t="n">
-        <v>16175.59256035158</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="F4" t="n">
-        <v>16175.59256035157</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="G4" t="n">
-        <v>8550.515172066862</v>
+        <v>8550.515172066873</v>
       </c>
       <c r="H4" t="n">
         <v>8550.515172066873</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161359</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="D5" t="n">
-        <v>63047.8032042662</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>59310.17243984473</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
-        <v>59310.17243984471</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26493,7 +26493,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26508,10 +26508,10 @@
         <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-486164.0474331313</v>
+        <v>-571555.0221096136</v>
       </c>
       <c r="C6" t="n">
-        <v>105192.8550877145</v>
+        <v>-148901.2740104843</v>
       </c>
       <c r="D6" t="n">
-        <v>39026.32967954755</v>
+        <v>76928.03840154404</v>
       </c>
       <c r="E6" t="n">
-        <v>-154434.987460746</v>
+        <v>55541.21917366271</v>
       </c>
       <c r="F6" t="n">
-        <v>215187.283969397</v>
+        <v>237614.1989908532</v>
       </c>
       <c r="G6" t="n">
-        <v>67726.50725472361</v>
+        <v>237614.1989908533</v>
       </c>
       <c r="H6" t="n">
-        <v>241090.3882889144</v>
+        <v>237614.1989908532</v>
       </c>
       <c r="I6" t="n">
-        <v>241090.3882889142</v>
+        <v>237614.198990853</v>
       </c>
       <c r="J6" t="n">
-        <v>192025.4435603697</v>
+        <v>168615.0445717392</v>
       </c>
       <c r="K6" t="n">
-        <v>241090.3882889143</v>
+        <v>165962.6706763818</v>
       </c>
       <c r="L6" t="n">
-        <v>221807.8170669642</v>
+        <v>212692.3597626038</v>
       </c>
       <c r="M6" t="n">
-        <v>147172.6395421515</v>
+        <v>190061.9331974385</v>
       </c>
       <c r="N6" t="n">
-        <v>241090.3882889142</v>
+        <v>237614.1989908535</v>
       </c>
       <c r="O6" t="n">
-        <v>195170.1770746035</v>
+        <v>237614.1989908531</v>
       </c>
       <c r="P6" t="n">
-        <v>241090.3882889144</v>
+        <v>237614.1989908534</v>
       </c>
     </row>
   </sheetData>
@@ -26737,19 +26737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129049</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="D3" t="n">
-        <v>614.0550137694784</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>934.0648921175392</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="F3" t="n">
-        <v>934.0648921175392</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
         <v>1089.776700593298</v>
@@ -26789,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663202</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="D4" t="n">
-        <v>263.7138800015062</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>640.584832100039</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>640.5848321000387</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022926</v>
@@ -26813,10 +26813,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="J4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="K4" t="n">
         <v>831.4014554022925</v>
-      </c>
-      <c r="K4" t="n">
-        <v>831.4014554022924</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
@@ -26825,13 +26825,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
     </row>
   </sheetData>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129049</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>239.6556507682058</v>
       </c>
       <c r="D3" t="n">
-        <v>65.58507285657345</v>
+        <v>80.35422757985521</v>
       </c>
       <c r="E3" t="n">
-        <v>320.0098783480609</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>155.7118084757591</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663202</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="D4" t="n">
-        <v>76.18829283518599</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="E4" t="n">
-        <v>376.8709520985328</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,22 +27035,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246567</v>
       </c>
       <c r="L4" t="n">
-        <v>76.18829283518645</v>
+        <v>98.46987537387599</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985324</v>
+        <v>190.8166233022534</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022544</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663202</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>278.4010767246571</v>
       </c>
       <c r="L4" t="n">
-        <v>76.18829283518599</v>
+        <v>98.46987537387565</v>
       </c>
       <c r="M4" t="n">
-        <v>376.8709520985328</v>
+        <v>190.8166233022538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.8166233022541</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077003</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954486</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043124</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655545</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470276</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622682</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151094</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974684</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619226</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924586</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590853</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340084</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621738</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405034</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975332</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829656</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292675</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936716</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550081</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288821</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820373</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445825</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620021</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639164</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114199</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682167</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784864</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647913</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147604</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181397</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077003</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954486</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043124</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J5" t="n">
-        <v>187.1384950655545</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K5" t="n">
-        <v>280.472093452864</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672894</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470276</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470026</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622682</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244296</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151094</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R5" t="n">
-        <v>138.5038187974684</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619226</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924586</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.179727797435305</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575676</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590853</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J6" t="n">
-        <v>111.4584056340084</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621738</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L6" t="n">
-        <v>256.1509851405034</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975332</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829656</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292675</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628873</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936716</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550081</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288821</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820373</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390167</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445825</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620021</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I7" t="n">
-        <v>29.74325515639164</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J7" t="n">
-        <v>69.92542181114199</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765069</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L7" t="n">
-        <v>147.0438920276991</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682167</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604415</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O7" t="n">
-        <v>139.7968957592434</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820538</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784864</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647913</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147604</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181397</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05394786304061366</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.468562869425037</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>25.28116948649916</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>95.16927002350883</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>209.5161878388634</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>314.0104541016253</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>389.5577350167918</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>433.4580399459293</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>440.4718441986832</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>415.925072165838</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>354.9824263269073</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>266.5770185656231</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>155.0658623465206</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>56.25237638702308</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>10.8061339609081</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.32079757678718</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>12.75612396528671</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>45.47482884990949</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
-        <v>124.7864061472485</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>213.2798437919895</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>286.7810703458305</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>334.6599825043656</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>343.517436429399</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>314.2513427542726</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>252.2144074480713</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>168.5986520825179</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>82.00530919736546</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>24.53323569163905</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>5.323741109944815</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.107312319912174</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>9.84501317158279</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>33.29990140244975</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
-        <v>78.28698101779069</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>128.6495586225235</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>164.6271425440336</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>173.576239384051</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>169.4489843734694</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>156.5135631817681</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>133.9243918555596</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>92.72230707919122</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>49.78878849350556</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>19.29743379337852</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>4.731243548715652</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.755034742181059</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H11" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I11" t="n">
-        <v>144.7659768979354</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J11" t="n">
-        <v>318.70387994919</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>477.6545005857143</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L11" t="n">
-        <v>592.572645076738</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M11" t="n">
-        <v>659.3512441730004</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N11" t="n">
-        <v>670.0202366342224</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O11" t="n">
-        <v>632.6811099166595</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P11" t="n">
-        <v>539.9786897190645</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q11" t="n">
-        <v>405.5015080147052</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R11" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S11" t="n">
-        <v>85.56785418745098</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T11" t="n">
-        <v>16.4376645838976</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H12" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>69.17367361436494</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J12" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K12" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>436.2347404177244</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M12" t="n">
-        <v>509.0653662040588</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N12" t="n">
-        <v>522.5388116762072</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O12" t="n">
-        <v>478.0209264405675</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>383.6539365378625</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R12" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>37.31853601997902</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T12" t="n">
-        <v>8.098166376000172</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H13" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>50.65387972335771</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J13" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K13" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M13" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O13" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P13" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q13" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>75.73581895759585</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S13" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T13" t="n">
-        <v>7.196893431069562</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U13" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.755034742181059</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H14" t="n">
-        <v>38.45624955336179</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I14" t="n">
-        <v>144.7659768979354</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J14" t="n">
-        <v>318.70387994919</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>477.6545005857143</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L14" t="n">
-        <v>592.572645076738</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M14" t="n">
-        <v>659.3512441730004</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N14" t="n">
-        <v>670.0202366342224</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O14" t="n">
-        <v>632.6811099166595</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P14" t="n">
-        <v>539.9786897190645</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q14" t="n">
-        <v>405.5015080147052</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R14" t="n">
-        <v>235.8772011235312</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S14" t="n">
-        <v>85.56785418745098</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T14" t="n">
-        <v>16.4376645838976</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.00912071134716</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
-        <v>19.40387634380021</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>69.17367361436494</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J15" t="n">
-        <v>189.8178475575841</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K15" t="n">
-        <v>324.4289352178438</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>436.2347404177244</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>509.0653662040588</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
-        <v>522.5388116762072</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O15" t="n">
-        <v>478.0209264405675</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P15" t="n">
-        <v>383.6539365378625</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>256.4624964168761</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
-        <v>124.7417227624141</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>37.31853601997902</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T15" t="n">
-        <v>8.098166376000172</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.684379313654579</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H16" t="n">
-        <v>14.97566335231072</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>50.65387972335771</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J16" t="n">
-        <v>119.0856174753787</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>195.6942511682319</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>250.4212663227908</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M16" t="n">
-        <v>264.0341136849627</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>257.7559726067959</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O16" t="n">
-        <v>238.0793597154673</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P16" t="n">
-        <v>203.7180217169137</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
-        <v>141.0437987097484</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>75.73581895759585</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S16" t="n">
-        <v>29.35413767523479</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T16" t="n">
-        <v>7.196893431069562</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U16" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868166</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>60.3822424078835</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973022</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197549</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405815</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916007</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.7991677406599</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781481</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996323</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848231</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855708</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765005</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880153</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663202</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>99.08507489005549</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>164.3820236732831</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469473</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538868166</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K5" t="n">
-        <v>60.3822424078835</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973022</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197549</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504117</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405815</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656916007</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.7991677406599</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781481</v>
+        <v>228.8054610813128</v>
       </c>
       <c r="L6" t="n">
-        <v>117.5966053606292</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755148</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N6" t="n">
-        <v>175.4858258996323</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848231</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855708</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.60944440765005</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L7" t="n">
-        <v>174.6339172880153</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M7" t="n">
-        <v>187.5255871663202</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N7" t="n">
-        <v>187.5255871663202</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O7" t="n">
-        <v>75.94151139701835</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P7" t="n">
-        <v>116.8989542469473</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>28.47028331217712</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>93.92060305664472</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>153.7913200468046</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>203.1118067186566</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>211.0587806020923</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>185.8268607441513</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>123.7494305716378</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>44.27132869117364</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>75.4384048176305</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>148.2266905659563</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>192.5259485823473</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>212.1757243460657</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>171.6550983098281</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>118.240000033741</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.9385470877689</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>106.3800667966406</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>192.2171678043497</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>213.1601163458916</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>213.581156752698</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>181.0986910958077</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
-        <v>131.2029511204531</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.56026382749684</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K11" t="n">
-        <v>257.5646495407337</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>356.8062301067508</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
-        <v>429.0050109457277</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
-        <v>440.6071730376315</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>402.5828984949727</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>308.745693963795</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q11" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>20.29166330939904</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>189.0712562313263</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K12" t="n">
-        <v>451.0527332560634</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>297.6803606378502</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M12" t="n">
-        <v>366.9313322820405</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N12" t="n">
-        <v>391.1970995928739</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O12" t="n">
-        <v>335.424681996123</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>249.6795291235323</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>255.4201198419607</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>25.72643735870594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K13" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L13" t="n">
-        <v>278.0112915831069</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M13" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N13" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>262.6644876295069</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P13" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>54.88175545805403</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>137.6579754225037</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
-        <v>257.5646495407337</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>356.8062301067508</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>429.0050109457277</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>440.6071730376315</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>402.5828984949727</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>308.745693963795</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
-        <v>183.1958181402557</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>20.29166330939904</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>189.0712562313263</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K15" t="n">
-        <v>379.9148430313197</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>297.6803606378502</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>366.9313322820405</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
-        <v>391.1970995928739</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O15" t="n">
-        <v>335.424681996123</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P15" t="n">
-        <v>249.6795291235323</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>326.5580100667037</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>25.72643735870594</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K16" t="n">
-        <v>173.4247593423491</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L16" t="n">
-        <v>278.0112915831069</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M16" t="n">
-        <v>303.6179906468033</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N16" t="n">
-        <v>301.8881449860245</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>262.6644876295069</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P16" t="n">
-        <v>200.9965809818072</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>54.88175545805403</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_13_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>555650.79546342</v>
+        <v>596513.8153873404</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12426458.88989895</v>
+        <v>12500319.53076206</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6381813.161497338</v>
+        <v>7426899.604845122</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9580421.07714317</v>
+        <v>9066172.114821</v>
       </c>
     </row>
     <row r="11">
@@ -667,16 +667,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="H2" t="n">
-        <v>232.2791855053265</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -721,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -746,10 +746,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -788,22 +788,22 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W3" t="n">
-        <v>126.5317742768907</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>15.4022924851448</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>18.14576679396754</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="5">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>211.2228407230372</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>307.1442478716884</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>239.8079481415046</v>
       </c>
     </row>
     <row r="6">
@@ -974,22 +974,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.90078060183515</v>
       </c>
       <c r="S6" t="n">
-        <v>37.1049045826091</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>99.72432496267238</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>8.721179143596718</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.3658819001187</v>
       </c>
       <c r="T7" t="n">
-        <v>72.16010323097214</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>15.39756578193399</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>227.9187527607133</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1280,7 +1280,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>89.14525753719026</v>
       </c>
     </row>
     <row r="10">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>51.02257256105592</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>106.063779996142</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>9.034245188469976</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.4645365582629</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>134.0513867710689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.65963851412518</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>8.915218264396643</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>34.70358683203005</v>
+        <v>46.07732883329624</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0312564930842</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1609,10 +1609,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1660,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>180.5296813822787</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>210.0946544764303</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,10 +1779,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>39.98381717399419</v>
       </c>
       <c r="H16" t="n">
-        <v>101.1037207411568</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>293.7625228451284</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1897,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>72.01057977447331</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,22 +2001,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>88.23797643592248</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
@@ -2061,16 +2061,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>241.3477288675435</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,19 +2080,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>191.0922221582261</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>410.9217256534534</v>
@@ -2134,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>299.0510103814572</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2244,16 +2244,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>67.41386939711248</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>70.70607604584242</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166.1465464887763</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>28.95911863073301</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2417,7 +2417,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>139.9012973798596</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,10 +2484,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>100.3137235757493</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
@@ -2529,7 +2529,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
@@ -2538,13 +2538,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>349.4526337405175</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2563,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>328.0423659626492</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>97.28002421814141</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>36.41670903610059</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>160.0317554412376</v>
+        <v>220.1612211844852</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2857,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2952,22 +2952,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>7.601081015447462</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>130.3899231758517</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3031,25 +3031,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>179.049755630705</v>
+        <v>183.7445803284257</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,16 +3246,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>164.2540732785633</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>202.4425172951288</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>121.0389903687753</v>
+        <v>13.6795331954266</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.97436107625042</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,22 +3474,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>94.32202086807152</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>121.0107198513687</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>53.85366032725198</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3602,7 +3602,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>50.43805308696707</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3675,7 +3675,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3717,10 +3717,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>19.36824379237597</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>136.3896895755402</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>168.1158122680963</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.5630551239094</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3906,13 +3906,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>219.0064738682225</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,22 +3982,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>163.0178325771093</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>114.5505532674841</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>143.5426205300823</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>80.7160676450474</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>522.1002068716687</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="C2" t="n">
-        <v>522.1002068716687</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="D2" t="n">
-        <v>522.1002068716687</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="E2" t="n">
-        <v>522.1002068716687</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="F2" t="n">
-        <v>255.7225503044907</v>
+        <v>393.841617006275</v>
       </c>
       <c r="G2" t="n">
-        <v>255.7225503044907</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="H2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I2" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991316</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358413</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388466</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X2" t="n">
-        <v>522.1002068716687</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y2" t="n">
-        <v>522.1002068716687</v>
+        <v>750.1023486652795</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>326.869123378691</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>326.869123378691</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>326.869123378691</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>167.6316683732355</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004799</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>598.8192732198758</v>
       </c>
       <c r="T3" t="n">
-        <v>858.0464416374622</v>
+        <v>409.399488203391</v>
       </c>
       <c r="U3" t="n">
-        <v>858.0464416374622</v>
+        <v>219.9797031869063</v>
       </c>
       <c r="V3" t="n">
-        <v>622.8943334057194</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="W3" t="n">
-        <v>495.0844603987591</v>
+        <v>30.55991817042155</v>
       </c>
       <c r="X3" t="n">
-        <v>495.0844603987591</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y3" t="n">
-        <v>495.0844603987591</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39.42616776776447</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>39.42616776776447</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>39.42616776776447</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>39.42616776776447</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>21.09711040012049</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>373.5399563830973</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>559.190287677754</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>721.9284911143042</v>
       </c>
       <c r="P4" t="n">
-        <v>1048.360858816803</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U4" t="n">
-        <v>788.4778634388466</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V4" t="n">
-        <v>533.7933752329598</v>
+        <v>560.6825636487947</v>
       </c>
       <c r="W4" t="n">
-        <v>267.4157186657818</v>
+        <v>371.26277863231</v>
       </c>
       <c r="X4" t="n">
-        <v>39.42616776776447</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y4" t="n">
-        <v>39.42616776776447</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1259.58599960285</v>
+        <v>503.6451371472893</v>
       </c>
       <c r="C5" t="n">
-        <v>1259.58599960285</v>
+        <v>503.6451371472893</v>
       </c>
       <c r="D5" t="n">
-        <v>1259.58599960285</v>
+        <v>503.6451371472893</v>
       </c>
       <c r="E5" t="n">
-        <v>949.3392845809428</v>
+        <v>503.6451371472893</v>
       </c>
       <c r="F5" t="n">
-        <v>538.3533797913353</v>
+        <v>261.4148864993048</v>
       </c>
       <c r="G5" t="n">
-        <v>122.3223344947425</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H5" t="n">
-        <v>122.3223344947425</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301901</v>
+        <v>40.41888584470337</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232717</v>
+        <v>122.9820404192955</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711874</v>
+        <v>262.3106962605485</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.14846457873</v>
+        <v>449.0101090859557</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135167</v>
+        <v>643.3443219779379</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545596</v>
+        <v>813.5133472948972</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172447</v>
+        <v>924.2476725444234</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904653</v>
+        <v>959.2317925660183</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904653</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642784</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.325171642784</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="U5" t="n">
-        <v>2036.325171642784</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="V5" t="n">
-        <v>2036.325171642784</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="W5" t="n">
-        <v>2036.325171642784</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="X5" t="n">
-        <v>2036.325171642784</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="Y5" t="n">
-        <v>1646.185839666972</v>
+        <v>717.0015419180339</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>634.9516129627989</v>
+        <v>193.6376651324474</v>
       </c>
       <c r="C6" t="n">
-        <v>634.9516129627989</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="D6" t="n">
-        <v>486.0172033015477</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="E6" t="n">
-        <v>326.7797482960922</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="F6" t="n">
-        <v>180.2451903229772</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="G6" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H6" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J6" t="n">
-        <v>214.3836900926279</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K6" t="n">
-        <v>440.9010965631276</v>
+        <v>86.79245551467723</v>
       </c>
       <c r="L6" t="n">
-        <v>698.4522321231152</v>
+        <v>224.022053530371</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.359127591624</v>
+        <v>403.5193898849756</v>
       </c>
       <c r="N6" t="n">
-        <v>1361.141651586256</v>
+        <v>640.9292585450651</v>
       </c>
       <c r="O6" t="n">
-        <v>1652.500897840822</v>
+        <v>800.4415712138255</v>
       </c>
       <c r="P6" t="n">
-        <v>1867.009313401722</v>
+        <v>909.1311987411241</v>
       </c>
       <c r="Q6" t="n">
-        <v>2168.459826904653</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904653</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="S6" t="n">
-        <v>2130.980125306058</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="T6" t="n">
-        <v>1936.269803780034</v>
+        <v>938.1198929682051</v>
       </c>
       <c r="U6" t="n">
-        <v>1708.168213913298</v>
+        <v>709.9811054793709</v>
       </c>
       <c r="V6" t="n">
-        <v>1473.016105681555</v>
+        <v>709.9811054793709</v>
       </c>
       <c r="W6" t="n">
-        <v>1218.778748953354</v>
+        <v>609.2494641029341</v>
       </c>
       <c r="X6" t="n">
-        <v>1010.927248747821</v>
+        <v>401.3979638974013</v>
       </c>
       <c r="Y6" t="n">
-        <v>803.166949982867</v>
+        <v>193.6376651324474</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>528.3513024533747</v>
+        <v>335.7045744383301</v>
       </c>
       <c r="C7" t="n">
-        <v>359.4151195254678</v>
+        <v>335.7045744383301</v>
       </c>
       <c r="D7" t="n">
-        <v>359.4151195254678</v>
+        <v>335.7045744383301</v>
       </c>
       <c r="E7" t="n">
-        <v>211.5020259430747</v>
+        <v>187.791480855937</v>
       </c>
       <c r="F7" t="n">
-        <v>211.5020259430747</v>
+        <v>187.791480855937</v>
       </c>
       <c r="G7" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="H7" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809306</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="J7" t="n">
-        <v>58.6963092017423</v>
+        <v>19.18463585132037</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246705</v>
+        <v>63.76336012264372</v>
       </c>
       <c r="L7" t="n">
-        <v>467.6240706728883</v>
+        <v>248.596355023462</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640786</v>
+        <v>453.8659557426998</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.636306385109</v>
+        <v>659.689320578804</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152952</v>
+        <v>833.7842159674028</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271086</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693647</v>
+        <v>959.2317925660184</v>
       </c>
       <c r="R7" t="n">
-        <v>1486.355378693647</v>
+        <v>950.4225207037995</v>
       </c>
       <c r="S7" t="n">
-        <v>1486.355378693647</v>
+        <v>742.9822359562048</v>
       </c>
       <c r="T7" t="n">
-        <v>1413.466385531049</v>
+        <v>517.3530392685698</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.466385531049</v>
+        <v>517.3530392685698</v>
       </c>
       <c r="V7" t="n">
-        <v>1158.781897325162</v>
+        <v>517.3530392685698</v>
       </c>
       <c r="W7" t="n">
-        <v>1158.781897325162</v>
+        <v>517.3530392685698</v>
       </c>
       <c r="X7" t="n">
-        <v>930.7923464271446</v>
+        <v>517.3530392685698</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.9997672836145</v>
+        <v>517.3530392685698</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>934.6665353554984</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="C8" t="n">
-        <v>934.6665353554984</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="D8" t="n">
-        <v>934.6665353554984</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="E8" t="n">
-        <v>548.8782827572541</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I8" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>294.5174947515903</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991315</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358411</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926626</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926626</v>
+        <v>670.32375641013</v>
       </c>
       <c r="V8" t="n">
-        <v>2437.640120926626</v>
+        <v>670.32375641013</v>
       </c>
       <c r="W8" t="n">
-        <v>2084.871465656512</v>
+        <v>670.32375641013</v>
       </c>
       <c r="X8" t="n">
-        <v>1711.405707395432</v>
+        <v>403.9460998429521</v>
       </c>
       <c r="Y8" t="n">
-        <v>1321.26637541962</v>
+        <v>403.9460998429521</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I9" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K9" t="n">
-        <v>684.9695361605189</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L9" t="n">
-        <v>979.6730931919907</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M9" t="n">
-        <v>1342.935112151211</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N9" t="n">
-        <v>1730.220240748156</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O9" t="n">
-        <v>2062.290675924318</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P9" t="n">
-        <v>2309.473409756615</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368633815395</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>318.9943252896839</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>111.1428250841511</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519478116707</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198.1367340659135</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C10" t="n">
-        <v>198.1367340659135</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D10" t="n">
-        <v>198.1367340659135</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I10" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S10" t="n">
-        <v>1482.324761508205</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T10" t="n">
-        <v>1259.34628070294</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U10" t="n">
-        <v>970.2279432067783</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="V10" t="n">
-        <v>715.5434550008914</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="W10" t="n">
-        <v>426.1262849639308</v>
+        <v>356.2217926073722</v>
       </c>
       <c r="X10" t="n">
-        <v>198.1367340659135</v>
+        <v>128.2322417093549</v>
       </c>
       <c r="Y10" t="n">
-        <v>198.1367340659135</v>
+        <v>21.09711040012049</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2303.170539913434</v>
+        <v>2005.303013228669</v>
       </c>
       <c r="C11" t="n">
-        <v>1934.208022973022</v>
+        <v>1636.340496288257</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.074797681506</v>
       </c>
       <c r="E11" t="n">
-        <v>1190.154071768027</v>
+        <v>892.2865450832621</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>481.3006402936546</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>254.0744928369593</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810554</v>
+        <v>586.3643121319021</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1035.500977900982</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1566.921495383895</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2111.554760801561</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2612.501248106874</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3005.546484356409</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3252.534341412641</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609171</v>
+        <v>3310.796077475973</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3200.225838528232</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136266</v>
+        <v>2994.194385163531</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136266</v>
+        <v>2740.662926950236</v>
       </c>
       <c r="V11" t="n">
-        <v>3215.315153136266</v>
+        <v>2740.662926950236</v>
       </c>
       <c r="W11" t="n">
-        <v>3215.315153136266</v>
+        <v>2387.894271680122</v>
       </c>
       <c r="X11" t="n">
-        <v>3079.909711953368</v>
+        <v>2014.428513419042</v>
       </c>
       <c r="Y11" t="n">
-        <v>2689.770379977556</v>
+        <v>2014.428513419042</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>931.3156003142904</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>756.8625710331634</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>607.928161371912</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>448.6907063664564</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>302.1561483933415</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>165.7864839520676</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>75.22119252365796</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>396.5106591183472</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>761.8119001858313</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.428070438129</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1679.30784629592</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2088.738397943177</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2398.009445431871</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2554.829753957941</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2425.269938942937</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2232.600479990498</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2004.532201264789</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1769.380093033047</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1515.142736304845</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1307.291236099312</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>249.4793381277382</v>
+        <v>747.4329337614283</v>
       </c>
       <c r="C13" t="n">
-        <v>249.4793381277382</v>
+        <v>578.4967508335214</v>
       </c>
       <c r="D13" t="n">
-        <v>249.4793381277382</v>
+        <v>428.3801114211857</v>
       </c>
       <c r="E13" t="n">
-        <v>101.5662445453451</v>
+        <v>280.4670178387926</v>
       </c>
       <c r="F13" t="n">
-        <v>66.51211643218342</v>
+        <v>233.9242614415236</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.21592154951945</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>110.9572157501789</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>314.3177428179431</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>630.0756374886843</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>973.3871879897969</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>1612.537390213392</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>1844.492540894131</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1921.651183891644</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1632.548016839103</v>
       </c>
       <c r="V13" t="n">
-        <v>1169.327103036486</v>
+        <v>1377.863528633216</v>
       </c>
       <c r="W13" t="n">
-        <v>879.9099329995254</v>
+        <v>1377.863528633216</v>
       </c>
       <c r="X13" t="n">
-        <v>651.920382101508</v>
+        <v>1149.873977735198</v>
       </c>
       <c r="Y13" t="n">
-        <v>431.1278029579779</v>
+        <v>929.0813985916681</v>
       </c>
     </row>
     <row r="14">
@@ -5254,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1575.942324366272</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C14" t="n">
-        <v>1575.942324366272</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D14" t="n">
-        <v>1575.942324366272</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E14" t="n">
-        <v>1190.154071768027</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L14" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5302,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V14" t="n">
-        <v>2535.034709923658</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W14" t="n">
-        <v>2352.681496406205</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X14" t="n">
-        <v>2352.681496406205</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y14" t="n">
-        <v>1962.542164430393</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>782.4929502983425</v>
+        <v>720.7556739678752</v>
       </c>
       <c r="C16" t="n">
-        <v>613.5567673704356</v>
+        <v>551.8194910399683</v>
       </c>
       <c r="D16" t="n">
-        <v>463.4401279580999</v>
+        <v>401.7028516276325</v>
       </c>
       <c r="E16" t="n">
-        <v>315.5270343757068</v>
+        <v>253.7897580452394</v>
       </c>
       <c r="F16" t="n">
-        <v>168.6370868777964</v>
+        <v>106.8998105473291</v>
       </c>
       <c r="G16" t="n">
-        <v>168.6370868777964</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1615.697475415547</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U16" t="n">
-        <v>1326.59460854119</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V16" t="n">
-        <v>1071.910120335303</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W16" t="n">
-        <v>782.4929502983425</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X16" t="n">
-        <v>782.4929502983425</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y16" t="n">
-        <v>782.4929502983425</v>
+        <v>902.4041387981149</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2230.937844028707</v>
+        <v>1917.382287315189</v>
       </c>
       <c r="C17" t="n">
-        <v>1934.208022973022</v>
+        <v>1548.419770374778</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.942324366272</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E17" t="n">
         <v>1190.154071768027</v>
@@ -5509,16 +5509,16 @@
         <v>364.0957168234162</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5527,16 +5527,16 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.60582160917</v>
@@ -5545,22 +5545,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U17" t="n">
-        <v>3325.60582160917</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V17" t="n">
-        <v>2994.542934265599</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W17" t="n">
-        <v>2994.542934265599</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X17" t="n">
-        <v>2621.077176004519</v>
+        <v>2694.121459355123</v>
       </c>
       <c r="Y17" t="n">
-        <v>2230.937844028707</v>
+        <v>2303.982127379311</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5612,10 +5612,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>680.3679798527295</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="C19" t="n">
-        <v>511.4317969248226</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="D19" t="n">
-        <v>361.3151575124868</v>
+        <v>302.5313330572882</v>
       </c>
       <c r="E19" t="n">
-        <v>213.4020639300937</v>
+        <v>302.5313330572882</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218339</v>
+        <v>155.6413855593778</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5694,31 +5694,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1615.697475415546</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U19" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V19" t="n">
-        <v>1082.809023826499</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W19" t="n">
-        <v>1082.809023826499</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X19" t="n">
-        <v>1082.809023826499</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y19" t="n">
-        <v>862.0164446829692</v>
+        <v>452.6479724696239</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1225.638517792182</v>
+        <v>1619.798686923957</v>
       </c>
       <c r="C20" t="n">
-        <v>1225.638517792182</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D20" t="n">
-        <v>867.3728191854311</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E20" t="n">
-        <v>481.5845665871869</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
         <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J20" t="n">
         <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R20" t="n">
         <v>3325.605821609171</v>
@@ -5782,22 +5782,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653544</v>
+        <v>2770.00361722497</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392464</v>
+        <v>2396.53785896389</v>
       </c>
       <c r="Y20" t="n">
-        <v>1418.660964416652</v>
+        <v>2006.398526988078</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5849,10 +5849,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>680.3679798527295</v>
+        <v>471.2459535582122</v>
       </c>
       <c r="C22" t="n">
-        <v>511.4317969248226</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="D22" t="n">
-        <v>361.3151575124869</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>302.3097706303054</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J22" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K22" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N22" t="n">
         <v>1317.747152581905</v>
@@ -5931,31 +5931,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q22" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088492</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1705.527932658018</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U22" t="n">
-        <v>1705.527932658018</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="V22" t="n">
-        <v>1450.843444452132</v>
+        <v>1391.09371846696</v>
       </c>
       <c r="W22" t="n">
-        <v>1161.426274415171</v>
+        <v>1101.676548429999</v>
       </c>
       <c r="X22" t="n">
-        <v>933.4367235171535</v>
+        <v>873.6869975319821</v>
       </c>
       <c r="Y22" t="n">
-        <v>862.0164446829692</v>
+        <v>652.894418388452</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1250.836169983545</v>
+        <v>1506.363819949361</v>
       </c>
       <c r="C23" t="n">
-        <v>1250.836169983545</v>
+        <v>1137.401303008949</v>
       </c>
       <c r="D23" t="n">
-        <v>892.5704713767946</v>
+        <v>779.1356044021989</v>
       </c>
       <c r="E23" t="n">
-        <v>892.5704713767946</v>
+        <v>393.3473518039546</v>
       </c>
       <c r="F23" t="n">
-        <v>481.5845665871869</v>
+        <v>393.3473518039546</v>
       </c>
       <c r="G23" t="n">
-        <v>66.51211643218342</v>
+        <v>393.3473518039546</v>
       </c>
       <c r="H23" t="n">
-        <v>66.51211643218342</v>
+        <v>95.76375141272183</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T23" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U23" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V23" t="n">
-        <v>2535.034709923658</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="W23" t="n">
-        <v>2182.266054653544</v>
+        <v>2656.568750250374</v>
       </c>
       <c r="X23" t="n">
-        <v>1808.800296392464</v>
+        <v>2283.102991989294</v>
       </c>
       <c r="Y23" t="n">
-        <v>1418.660964416652</v>
+        <v>1892.963660013483</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6101,7 +6101,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V24" t="n">
         <v>1779.608347199865</v>
@@ -6110,10 +6110,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y24" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.9541770656748</v>
+        <v>504.4781294962293</v>
       </c>
       <c r="C25" t="n">
-        <v>529.0179941377679</v>
+        <v>335.5419465683224</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>335.5419465683224</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F25" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6177,22 +6177,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T25" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U25" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V25" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W25" t="n">
-        <v>1067.25816976153</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="X25" t="n">
-        <v>839.2686188635128</v>
+        <v>906.9191734699991</v>
       </c>
       <c r="Y25" t="n">
-        <v>839.2686188635128</v>
+        <v>686.126594326469</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1661.795585684488</v>
+        <v>1921.870414581995</v>
       </c>
       <c r="C26" t="n">
-        <v>1292.833068744076</v>
+        <v>1552.907897641583</v>
       </c>
       <c r="D26" t="n">
-        <v>934.5673701373257</v>
+        <v>1194.642199034832</v>
       </c>
       <c r="E26" t="n">
-        <v>934.5673701373257</v>
+        <v>808.8539464365881</v>
       </c>
       <c r="F26" t="n">
-        <v>523.5814653477182</v>
+        <v>397.8680416469805</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I26" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O26" t="n">
         <v>2623.528026939508</v>
@@ -6262,16 +6262,16 @@
         <v>3072.075344883008</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539437</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W26" t="n">
-        <v>2388.243802269323</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X26" t="n">
-        <v>2014.778044008243</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y26" t="n">
-        <v>2014.778044008243</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="27">
@@ -6281,37 +6281,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D27" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G27" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K27" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>848.0708164780106</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C28" t="n">
-        <v>679.1346335501037</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D28" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E28" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F28" t="n">
         <v>234.2149530574645</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1829.031897363097</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U28" t="n">
-        <v>1539.929030488741</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V28" t="n">
-        <v>1539.929030488741</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W28" t="n">
-        <v>1250.51186045178</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X28" t="n">
-        <v>1250.51186045178</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y28" t="n">
-        <v>1029.71928130825</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6484,31 +6484,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q29" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R29" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U29" t="n">
-        <v>3163.957583789738</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="V29" t="n">
-        <v>3163.957583789738</v>
+        <v>2786.952333616968</v>
       </c>
       <c r="W29" t="n">
-        <v>2811.188928519624</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="X29" t="n">
-        <v>2437.723170258544</v>
+        <v>2434.183678346854</v>
       </c>
       <c r="Y29" t="n">
-        <v>2047.583838282732</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I30" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J30" t="n">
         <v>160.1893859228007</v>
@@ -6548,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6575,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6584,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>979.7778095849316</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="C31" t="n">
-        <v>810.8416266570247</v>
+        <v>241.8928126690276</v>
       </c>
       <c r="D31" t="n">
-        <v>660.7249872446889</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E31" t="n">
-        <v>512.8118936622958</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F31" t="n">
-        <v>365.9219461643854</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>198.2191095391044</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I31" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J31" t="n">
         <v>111.634748879119</v>
@@ -6654,19 +6654,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1705.527932658019</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V31" t="n">
-        <v>1450.843444452132</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W31" t="n">
-        <v>1161.426274415171</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X31" t="n">
-        <v>1161.426274415171</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y31" t="n">
-        <v>1161.426274415171</v>
+        <v>423.5412774992673</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1501.213961756484</v>
+        <v>1032.061124352532</v>
       </c>
       <c r="C32" t="n">
-        <v>1501.213961756484</v>
+        <v>663.0986074121199</v>
       </c>
       <c r="D32" t="n">
-        <v>1320.35562273557</v>
+        <v>477.498021221791</v>
       </c>
       <c r="E32" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H32" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I32" t="n">
         <v>66.51211643218343</v>
@@ -6727,25 +6727,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410103</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066532</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796418</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X32" t="n">
-        <v>2277.953133796418</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y32" t="n">
-        <v>1887.813801820606</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>848.0708164780106</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C34" t="n">
-        <v>679.1346335501037</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D34" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E34" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F34" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G34" t="n">
         <v>66.51211643218343</v>
@@ -6885,25 +6885,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S34" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V34" t="n">
-        <v>1416.425065783662</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W34" t="n">
-        <v>1416.425065783662</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X34" t="n">
-        <v>1250.51186045178</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1029.71928130825</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1811.579746109088</v>
+        <v>1661.138951213861</v>
       </c>
       <c r="C35" t="n">
-        <v>1442.617229168676</v>
+        <v>1292.17643427345</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
         <v>66.5121164321834</v>
@@ -6967,22 +6967,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U35" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W35" t="n">
-        <v>2961.784676410101</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X35" t="n">
-        <v>2588.318918149022</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y35" t="n">
-        <v>2198.17958617321</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="36">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G37" t="n">
         <v>66.5121164321834</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1638.191681214136</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V37" t="n">
-        <v>1383.507193008249</v>
+        <v>1418.567279931238</v>
       </c>
       <c r="W37" t="n">
-        <v>1094.090022971289</v>
+        <v>1129.150109894277</v>
       </c>
       <c r="X37" t="n">
-        <v>1094.090022971289</v>
+        <v>901.1605589962596</v>
       </c>
       <c r="Y37" t="n">
-        <v>873.2974438277585</v>
+        <v>680.3679798527295</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1754.744438482647</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="C38" t="n">
-        <v>1385.781921542235</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="D38" t="n">
-        <v>1027.516222935484</v>
+        <v>921.7704558796252</v>
       </c>
       <c r="E38" t="n">
-        <v>641.7279703372401</v>
+        <v>535.9822032813809</v>
       </c>
       <c r="F38" t="n">
-        <v>230.7420655476325</v>
+        <v>535.9822032813809</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>120.9097531263773</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7177,7 +7177,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
@@ -7204,22 +7204,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U38" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V38" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W38" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X38" t="n">
-        <v>2531.48361052258</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y38" t="n">
-        <v>2141.344278546768</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
         <v>66.5121164321834</v>
@@ -7286,7 +7286,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7295,10 +7295,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>848.0708164780106</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C40" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E40" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
         <v>66.5121164321834</v>
@@ -7365,19 +7365,19 @@
         <v>1705.527932658019</v>
       </c>
       <c r="U40" t="n">
-        <v>1416.425065783662</v>
+        <v>1685.964050039457</v>
       </c>
       <c r="V40" t="n">
-        <v>1416.425065783662</v>
+        <v>1431.27956183357</v>
       </c>
       <c r="W40" t="n">
-        <v>1127.007895746702</v>
+        <v>1141.86239179661</v>
       </c>
       <c r="X40" t="n">
-        <v>899.0183448486844</v>
+        <v>913.8728408985925</v>
       </c>
       <c r="Y40" t="n">
-        <v>899.0183448486844</v>
+        <v>693.0802617550623</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2005.586939522201</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="C41" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.5121164321834</v>
@@ -7411,10 +7411,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7423,13 +7423,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q41" t="n">
         <v>3266.588755052368</v>
@@ -7438,25 +7438,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W41" t="n">
-        <v>3155.791869823214</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X41" t="n">
-        <v>2782.326111562134</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y41" t="n">
-        <v>2392.186779586323</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G42" t="n">
         <v>176.0213023927779</v>
@@ -7490,46 +7490,46 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>848.0708164780106</v>
+        <v>532.4548862703364</v>
       </c>
       <c r="C43" t="n">
-        <v>679.1346335501037</v>
+        <v>363.5187033424295</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574644</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
         <v>66.5121164321834</v>
@@ -7596,25 +7596,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T43" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U43" t="n">
-        <v>1416.425065783662</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V43" t="n">
-        <v>1416.425065783662</v>
+        <v>1003.520521137537</v>
       </c>
       <c r="W43" t="n">
-        <v>1127.007895746702</v>
+        <v>714.1033511005761</v>
       </c>
       <c r="X43" t="n">
-        <v>1127.007895746702</v>
+        <v>714.1033511005761</v>
       </c>
       <c r="Y43" t="n">
-        <v>906.2153166031716</v>
+        <v>714.1033511005761</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1853.982617026597</v>
+        <v>1295.236214140705</v>
       </c>
       <c r="C44" t="n">
-        <v>1485.020100086185</v>
+        <v>926.2736972002933</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>568.0079985935429</v>
       </c>
       <c r="E44" t="n">
-        <v>934.5673701373257</v>
+        <v>182.2197459952986</v>
       </c>
       <c r="F44" t="n">
-        <v>523.5814653477182</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H44" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
@@ -7660,13 +7660,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7678,22 +7678,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T44" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U44" t="n">
-        <v>2961.784676410101</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V44" t="n">
-        <v>2630.721789066531</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W44" t="n">
-        <v>2630.721789066531</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X44" t="n">
-        <v>2630.721789066531</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y44" t="n">
-        <v>2240.582457090719</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
         <v>66.5121164321834</v>
@@ -7730,10 +7730,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7760,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7769,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>382.1280466398575</v>
+        <v>526.6580321322147</v>
       </c>
       <c r="C46" t="n">
-        <v>382.1280466398575</v>
+        <v>357.7218492043078</v>
       </c>
       <c r="D46" t="n">
-        <v>382.1280466398575</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="E46" t="n">
-        <v>234.2149530574644</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="F46" t="n">
-        <v>234.2149530574644</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H46" t="n">
         <v>66.5121164321834</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1845.763166628849</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U46" t="n">
-        <v>1556.660299754492</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V46" t="n">
-        <v>1301.975811548605</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W46" t="n">
-        <v>1012.558641511645</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X46" t="n">
-        <v>784.5690906136274</v>
+        <v>929.0990761059845</v>
       </c>
       <c r="Y46" t="n">
-        <v>563.7765114700973</v>
+        <v>708.3064969624544</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069042</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8139,22 +8139,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457083</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>163.8604018711116</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140411</v>
+        <v>46.56605103777598</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928469</v>
       </c>
       <c r="K6" t="n">
-        <v>70.12741386431412</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8306,7 +8306,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>39.14457273477282</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>27.64005315446208</v>
       </c>
       <c r="R6" t="n">
-        <v>31.66886087721431</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>106.7437663446525</v>
+        <v>49.70416500698953</v>
       </c>
       <c r="L7" t="n">
         <v>162.4747015415544</v>
@@ -8394,7 +8394,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839809</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8476,7 +8476,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="Q9" t="n">
-        <v>138.9393975111057</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154988</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>0.5463950602909335</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>216.7578328961673</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402053</v>
+        <v>219.3504585753916</v>
       </c>
       <c r="G2" t="n">
-        <v>412.83417464571</v>
+        <v>225.5722460637382</v>
       </c>
       <c r="H2" t="n">
-        <v>81.9144471239415</v>
+        <v>129.3682389399025</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22625,7 +22625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -22634,19 +22634,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22673,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W3" t="n">
-        <v>125.1632088840289</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>190.3706927183327</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -22716,19 +22716,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>127.2752812289637</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22749,31 +22749,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117134</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>64.61205615750814</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>98.99741117027114</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>60.53711821294272</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>31.05906618577492</v>
       </c>
     </row>
     <row r="5">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>171.5110009404434</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,19 +22792,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>74.7861222005734</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>167.0680976002068</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>173.1089558044322</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.4960408938904</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,13 +22834,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696039</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>146.429990514549</v>
       </c>
     </row>
     <row r="6">
@@ -22862,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185514</v>
+        <v>99.90681807664346</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046393</v>
+        <v>45.4458084395867</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,19 +22913,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>100.4701093106901</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>151.9706581982472</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22944,7 +22944,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -22959,13 +22959,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176904</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656386</v>
+        <v>120.4520025241946</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>149.2077155033305</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23029,16 +23029,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>391.4784799597774</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -23074,22 +23074,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>23.2294151175692</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23099,28 +23099,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -23150,10 +23150,10 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23168,7 +23168,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>116.5374382401141</v>
       </c>
     </row>
     <row r="10">
@@ -23190,19 +23190,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S10" t="n">
-        <v>143.6398878006815</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>112.5208733559528</v>
       </c>
     </row>
     <row r="11">
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>373.6995964750106</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.7321536188796</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>42.04518470759555</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>235.6797139074001</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>110.7174611909012</v>
+        <v>99.34371918963501</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.51626366671982</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.17712508496179</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23497,10 +23497,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23548,19 +23548,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>168.7112873351343</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>159.6364462020388</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,10 +23667,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>126.041991085034</v>
       </c>
       <c r="H16" t="n">
-        <v>43.65129417316393</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>71.51036892587911</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23785,19 +23785,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>297.7205209039957</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>77.78783182310575</v>
       </c>
       <c r="H19" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>10.78991445628446</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>191.6416195052545</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,16 +24022,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>28.70124808867769</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>78.00717862581877</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>147.8785773062524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>216.5872951747043</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>12.61781114219294</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>39.93068280207774</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>46.12023907081985</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>33.28120792296312</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>82.87935969080428</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,16 +24502,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>122.2689250580278</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>182.1679443159942</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>90.96341651766443</v>
+        <v>30.83395077441682</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24745,10 +24745,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24840,22 +24840,22 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>141.0143920027649</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>14.36509173846903</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24919,25 +24919,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>175.6332859899779</v>
+        <v>170.9384612922573</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,10 +24967,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>61.45558211047381</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>16.14213605696602</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>233.6440512519076</v>
+        <v>341.0035084252564</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,13 +25207,13 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>154.8576191056869</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25362,22 +25362,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>157.8156224557565</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>289.9110058020848</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>294.6077643873205</v>
+        <v>240.7541040600685</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>129.3939270949702</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
         <v>144.7550149143208</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>266.8435944132369</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>228.8832021954673</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25645,7 +25645,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>181.1251564493167</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.2689250580279</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25794,13 +25794,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25836,7 +25836,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>33.13116945560552</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,22 +25870,22 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>191.6652090435736</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>292.3254924742274</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,7 +25927,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -26025,22 +26025,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>5.072852488130053</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26073,16 +26073,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>138.8328816311218</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>531745.8774266867</v>
+        <v>469204.3889465103</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>726949.4244662802</v>
+        <v>512616.4267801374</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>795881.4350570394</v>
+        <v>531745.8774266866</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>877471.8739210082</v>
+        <v>875885.9482981047</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>877471.8739210081</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>877471.8739210081</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>877471.8739210081</v>
+        <v>877471.8739210083</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>877471.8739210083</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>877471.8739210081</v>
+        <v>877471.8739210084</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>877471.8739210083</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>877471.873921008</v>
+        <v>877471.8739210082</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>877471.8739210083</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>877471.8739210082</v>
+        <v>877471.8739210081</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>171419.5356187815</v>
+      </c>
+      <c r="C2" t="n">
+        <v>186902.592222389</v>
+      </c>
+      <c r="D2" t="n">
         <v>193768.2521372568</v>
       </c>
-      <c r="C2" t="n">
-        <v>265569.8802231801</v>
-      </c>
-      <c r="D2" t="n">
-        <v>290673.0489695931</v>
-      </c>
       <c r="E2" t="n">
+        <v>323301.6211378982</v>
+      </c>
+      <c r="F2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="G2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="H2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="I2" t="n">
+        <v>323947.2440223746</v>
+      </c>
+      <c r="J2" t="n">
         <v>323947.2440223744</v>
       </c>
-      <c r="F2" t="n">
+      <c r="K2" t="n">
+        <v>323947.2440223745</v>
+      </c>
+      <c r="L2" t="n">
         <v>323947.2440223744</v>
-      </c>
-      <c r="G2" t="n">
-        <v>323947.2440223743</v>
-      </c>
-      <c r="H2" t="n">
-        <v>323947.2440223744</v>
-      </c>
-      <c r="I2" t="n">
-        <v>323947.2440223744</v>
-      </c>
-      <c r="J2" t="n">
-        <v>323947.2440223746</v>
-      </c>
-      <c r="K2" t="n">
-        <v>323947.2440223744</v>
-      </c>
-      <c r="L2" t="n">
-        <v>323947.2440223746</v>
       </c>
       <c r="M2" t="n">
         <v>323947.2440223744</v>
       </c>
       <c r="N2" t="n">
-        <v>323947.2440223747</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="O2" t="n">
-        <v>323947.2440223743</v>
+        <v>323947.2440223744</v>
       </c>
       <c r="P2" t="n">
-        <v>323947.2440223746</v>
+        <v>323947.2440223744</v>
       </c>
     </row>
     <row r="3">
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>308174.1417414033</v>
+        <v>57873.59701082214</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.1828459611</v>
+        <v>25049.96918112296</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171905</v>
+        <v>548162.4690950282</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3449.010472952918</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,22 +26386,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911413</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
-        <v>71651.52831447145</v>
+        <v>13455.80667946134</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.83922824965</v>
+        <v>6050.376200379651</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341477</v>
+        <v>140547.3526709352</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>906.8265503279132</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>9240.880119453523</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11138.47116666974</v>
+      </c>
+      <c r="D4" t="n">
         <v>11859.77526465972</v>
       </c>
-      <c r="C4" t="n">
-        <v>14549.24850679122</v>
-      </c>
-      <c r="D4" t="n">
-        <v>16175.59256035158</v>
-      </c>
       <c r="E4" t="n">
-        <v>8550.515172066862</v>
+        <v>8694.99465449842</v>
       </c>
       <c r="F4" t="n">
         <v>8550.515172066862</v>
       </c>
       <c r="G4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="H4" t="n">
-        <v>8550.515172066873</v>
+        <v>8550.515172066862</v>
       </c>
       <c r="I4" t="n">
         <v>8550.515172066862</v>
@@ -26469,22 +26469,22 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56985.80041161357</v>
+      </c>
+      <c r="C5" t="n">
+        <v>61145.70223437329</v>
+      </c>
+      <c r="D5" t="n">
         <v>63047.80320426619</v>
       </c>
-      <c r="C5" t="n">
-        <v>85199.08185587224</v>
-      </c>
-      <c r="D5" t="n">
-        <v>92937.77243984472</v>
-      </c>
       <c r="E5" t="n">
-        <v>74306.3405613933</v>
+        <v>74015.36825377264</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
         <v>74306.3405613933</v>
@@ -26496,7 +26496,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
         <v>74306.3405613933</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-571555.0221096136</v>
+        <v>-487314.4437755876</v>
       </c>
       <c r="C6" t="n">
-        <v>-148901.2740104843</v>
+        <v>55675.91523966512</v>
       </c>
       <c r="D6" t="n">
-        <v>76928.03840154404</v>
+        <v>92777.93296853274</v>
       </c>
       <c r="E6" t="n">
-        <v>55541.21917366271</v>
+        <v>-307922.2278103887</v>
       </c>
       <c r="F6" t="n">
-        <v>237614.1989908532</v>
+        <v>237293.7588861554</v>
       </c>
       <c r="G6" t="n">
-        <v>237614.1989908533</v>
+        <v>240742.7693591082</v>
       </c>
       <c r="H6" t="n">
-        <v>237614.1989908532</v>
+        <v>240742.7693591082</v>
       </c>
       <c r="I6" t="n">
-        <v>237614.198990853</v>
+        <v>240742.7693591084</v>
       </c>
       <c r="J6" t="n">
-        <v>168615.0445717392</v>
+        <v>191677.8246305636</v>
       </c>
       <c r="K6" t="n">
-        <v>165962.6706763818</v>
+        <v>227286.9626796469</v>
       </c>
       <c r="L6" t="n">
-        <v>212692.3597626038</v>
+        <v>234692.3931587285</v>
       </c>
       <c r="M6" t="n">
-        <v>190061.9331974385</v>
+        <v>100195.416688173</v>
       </c>
       <c r="N6" t="n">
-        <v>237614.1989908535</v>
+        <v>239835.9428087802</v>
       </c>
       <c r="O6" t="n">
-        <v>237614.1989908531</v>
+        <v>240742.7693591081</v>
       </c>
       <c r="P6" t="n">
-        <v>237614.1989908534</v>
+        <v>240742.7693591081</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376841</v>
+        <v>593.4761003380646</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1086.755407162287</v>
       </c>
       <c r="F3" t="n">
         <v>1089.776700593298</v>
@@ -26789,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.5255871663199</v>
+      </c>
+      <c r="C4" t="n">
+        <v>239.8079481415046</v>
+      </c>
+      <c r="D4" t="n">
         <v>263.7138800015061</v>
       </c>
-      <c r="C4" t="n">
-        <v>542.1149567261632</v>
-      </c>
-      <c r="D4" t="n">
-        <v>640.5848321000389</v>
-      </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>827.6990193689932</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
         <v>831.4014554022929</v>
@@ -26959,19 +26959,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>239.6556507682058</v>
+        <v>45.00615942516004</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985521</v>
+        <v>20.57891343141364</v>
       </c>
       <c r="E3" t="n">
-        <v>155.711808475759</v>
+        <v>472.7003933928087</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.021293431011372</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>278.4010767246571</v>
+        <v>52.28236097518473</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387565</v>
+        <v>23.90593186000154</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022538</v>
+        <v>563.985139367487</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.702436033299364</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015064</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246567</v>
+        <v>52.28236097518473</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387599</v>
+        <v>23.90593186000154</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022534</v>
+        <v>563.9851393674867</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033299364</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>278.4010767246571</v>
+        <v>52.28236097518473</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387565</v>
+        <v>23.90593186000154</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022538</v>
+        <v>563.985139367487</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>3.702436033299364</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>25.28116948649916</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>209.5161878388634</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>389.5577350167918</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>354.9824263269073</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>266.5770185656231</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>155.0658623465206</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>10.8061339609081</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.32079757678718</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>12.75612396528671</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>213.2798437919895</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>334.6599825043656</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>343.517436429399</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>168.5986520825179</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>24.53323569163905</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.107312319912174</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>33.29990140244975</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>164.6271425440336</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>173.576239384051</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>169.4489843734694</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>133.9243918555596</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508275</v>
+        <v>2.385833569198248</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958413</v>
+        <v>24.43391804055156</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933229</v>
+        <v>91.97984867651554</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409257</v>
+        <v>202.49464189374</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258711</v>
+        <v>303.4869768779019</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840426</v>
+        <v>376.5024309712528</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934779</v>
+        <v>418.9314987074821</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839008</v>
+        <v>425.7102483359667</v>
       </c>
       <c r="O5" t="n">
-        <v>578.2538401190903</v>
+        <v>401.9861157822516</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662298</v>
+        <v>343.0858495426698</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6176784928395</v>
+        <v>257.6431848457574</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141319</v>
+        <v>149.8691179411496</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699491</v>
+        <v>54.36718245810513</v>
       </c>
       <c r="T5" t="n">
-        <v>15.02359169452748</v>
+        <v>10.44398644916533</v>
       </c>
       <c r="U5" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1908666855358598</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175396</v>
+        <v>1.276533498840365</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464133</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095115</v>
+        <v>43.95082441182838</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076062</v>
+        <v>120.6044214847382</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913577</v>
+        <v>206.1321659070427</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616798</v>
+        <v>277.170135351282</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730378</v>
+        <v>323.4444746842452</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152843</v>
+        <v>332.0050874900651</v>
       </c>
       <c r="O6" t="n">
-        <v>436.8985133884505</v>
+        <v>303.7197925947075</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475632</v>
+        <v>243.7619099671572</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349506</v>
+        <v>162.9483813607456</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867496</v>
+        <v>79.25705355080798</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053859</v>
+        <v>23.71104985784624</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057843</v>
+        <v>5.145325813308313</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.08398246702897144</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526971</v>
+        <v>1.070202803888313</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619435</v>
+        <v>9.515075838207009</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017475</v>
+        <v>32.18391704784128</v>
       </c>
       <c r="J7" t="n">
-        <v>108.8411121001569</v>
+        <v>75.66333823490373</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490426</v>
+        <v>124.338107579024</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368736</v>
+        <v>159.1099695889952</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282506</v>
+        <v>167.7591540676925</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420139</v>
+        <v>163.770216344109</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595396</v>
+        <v>151.2683017714136</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099892</v>
+        <v>129.4361645720919</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451903</v>
+        <v>89.61489115104776</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153089</v>
+        <v>48.12020970937814</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735639</v>
+        <v>18.6507161368536</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978875</v>
+        <v>4.572684707522791</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05837469839390805</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.368865958441351</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.7426484968875</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.4307048628104</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>370.802037140262</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>555.7361331610845</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>689.4398147367341</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>767.1346347251655</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>779.547675129587</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>736.1047642553358</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>628.2483859063149</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>471.7883737696338</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>274.4357762619418</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.55553302798239</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.349509276675308</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.33754936634907</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>22.57580572237129</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.48141458701843</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>220.8471530724795</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>377.4629606178672</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>507.5455323732926</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>592.2816969034463</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>607.9576310312873</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>556.1624582295526</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>446.3694048776571</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>298.3861261325585</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.41895423898379</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.421964331906993</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1537861425229652</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4237178394216</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>58.93421126053845</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>227.6841656317053</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>291.3573430939679</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>307.1954669786772</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>299.8910453895539</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>276.9979191894957</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.0195727358534</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.1162662922077</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.15262484475579</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.373361333873355</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1068939744749792</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I20" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34450,7 +34450,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
         <v>508.9565619138796</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127218</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>192.5259485823473</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>212.1757243460657</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>171.6550983098281</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>192.2171678043497</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>213.1601163458916</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="N4" t="n">
-        <v>213.581156752698</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204531</v>
+        <v>28.45844197068212</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142395</v>
+        <v>21.4487373670537</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808906</v>
+        <v>83.39712583292135</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140554</v>
+        <v>140.7360160012656</v>
       </c>
       <c r="M5" t="n">
-        <v>372.2834058662052</v>
+        <v>188.5852654802094</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873099</v>
+        <v>196.2971847393758</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974036</v>
+        <v>171.8879043605649</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109602</v>
+        <v>111.8528537874002</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.31198861839</v>
+        <v>35.33749497130796</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>172.7419126813483</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>228.8054610813128</v>
+        <v>68.2907269326837</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818056</v>
+        <v>138.6157555714078</v>
       </c>
       <c r="M6" t="n">
-        <v>323.1382782510195</v>
+        <v>181.3104407622268</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319509</v>
+        <v>239.8079481415046</v>
       </c>
       <c r="O6" t="n">
-        <v>294.302268944006</v>
+        <v>161.123548150263</v>
       </c>
       <c r="P6" t="n">
-        <v>216.6751672332329</v>
+        <v>109.7875025528269</v>
       </c>
       <c r="Q6" t="n">
-        <v>304.4954681847781</v>
+        <v>50.60666042918616</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348409</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>156.5898900231598</v>
+        <v>45.02901441547814</v>
       </c>
       <c r="L7" t="n">
-        <v>256.4684548971897</v>
+        <v>186.6999948493114</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900911</v>
+        <v>207.3430310295331</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212425</v>
+        <v>207.9023887233376</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735793</v>
+        <v>175.8534296854533</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748827</v>
+        <v>126.7147238369854</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349593</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>215.5616691250133</v>
       </c>
       <c r="Q9" t="n">
-        <v>255.4201198419603</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>189.7561326135757</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>335.6462821161039</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>453.6733997667469</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>536.7884014978928</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>550.1346115329961</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>506.006552833649</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>397.0153901510453</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>249.4826838951843</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>58.85023844780966</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.00952640581281</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>239.6215216435082</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>368.9911525934185</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>450.147662981428</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>476.615918947954</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>413.5662137851082</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>312.3949974633269</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>158.404352046537</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.19322646531253</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>205.4146738058224</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>318.947368354284</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>346.7793439405178</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>344.0232177687825</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>301.5830471035354</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>234.2981320007469</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>77.93802322981092</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
         <v>370.4021821340054</v>
